--- a/medicine/Pharmacie/Candésartan/Candésartan.xlsx
+++ b/medicine/Pharmacie/Candésartan/Candésartan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cand%C3%A9sartan</t>
+          <t>Candésartan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le candésartan est un antihypertenseur qui appartient à la famille des antagonistes des récepteurs de l'angiotensine II.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cand%C3%A9sartan</t>
+          <t>Candésartan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Chimie et pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le candésartan est commercialisé sous forme de candésartan cilexétil. Le candésartan cilexétil est complètement métabolisé par les estérases de la paroi intestinale lors de l'absorption du médicament.
-L'utilisation d'une prodrogue du médicament augmente la biodisponibilité du candésartan. Malgré cela, la biodisponibilité absolue est relativement faible estimée à 15 % (pour les comprimés) à 40 % (pour la solution)[2]. Sa concentration inhibitrice médiane est de 15 mg/kg.
-Le candésartan est synthétisé comme suit[3] :
+L'utilisation d'une prodrogue du médicament augmente la biodisponibilité du candésartan. Malgré cela, la biodisponibilité absolue est relativement faible estimée à 15 % (pour les comprimés) à 40 % (pour la solution). Sa concentration inhibitrice médiane est de 15 mg/kg.
+Le candésartan est synthétisé comme suit :
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cand%C3%A9sartan</t>
+          <t>Candésartan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traitement de l'hypertension artérielle essentielle.
 Traitement de l'insuffisance cardiaque avec dysfonction systolique ventriculaire gauche (fraction d'éjection ventriculaire gauche  
         ≤
     {\displaystyle \leq }
- 40 %) en association avec des inhibiteurs de l'enzyme de conversion (IEC) ou en cas d'intolérance aux inhibiteurs de l'enzyme de conversion (IEC)[4].</t>
+ 40 %) en association avec des inhibiteurs de l'enzyme de conversion (IEC) ou en cas d'intolérance aux inhibiteurs de l'enzyme de conversion (IEC).</t>
         </is>
       </c>
     </row>
